--- a/data/turning_counts/int100.xlsx
+++ b/data/turning_counts/int100.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haydenatchley/Documents/662_dogbones_2023/data/turning_counts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85C29829-0A96-EC4F-BC3D-F58686A6E8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DBE3DD-AD93-0142-849B-A3241F8A6355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="500" windowWidth="17100" windowHeight="10120" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="500" windowWidth="17100" windowHeight="10120" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study Info" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,6 @@
     <sheet name="Bank4" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="80000"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -259,8 +248,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="8.25"/>
       <name val="Arial"/>
@@ -268,17 +257,20 @@
     <font>
       <sz val="8.25"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8.25"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="8.25"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -290,6 +282,13 @@
       <b/>
       <sz val="8.25"/>
       <name val="Microsoft Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="8.25"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -320,7 +319,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -378,6 +377,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -728,7 +731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView showRowColHeaders="0" workbookViewId="0"/>
@@ -820,12 +823,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -953,8 +956,8 @@
       <c r="A3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="9">
-        <v>0</v>
+      <c r="C3" s="15">
+        <v>1</v>
       </c>
       <c r="D3" s="9">
         <v>18</v>
@@ -1402,7 +1405,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="0" orientation="portrait" blackAndWhite="1" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -1411,7 +1413,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2001,7 +2003,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2583,7 +2585,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:U42"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/turning_counts/int100.xlsx
+++ b/data/turning_counts/int100.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haydenatchley/Documents/662_dogbones_2023/data/turning_counts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam Hill\Documents\GitHub\662_dogbones_2023\data\turning_counts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DBE3DD-AD93-0142-849B-A3241F8A6355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704AE79B-12C4-4D84-8154-FE3282BC86E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="500" windowWidth="17100" windowHeight="10120" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study Info" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,20 @@
     <sheet name="Queue Overload" sheetId="4" r:id="rId4"/>
     <sheet name="Bank4" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="80000"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -736,13 +749,13 @@
   <sheetViews>
     <sheetView showRowColHeaders="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -750,7 +763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -758,7 +771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -766,7 +779,7 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -774,7 +787,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -782,12 +795,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -795,12 +808,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -808,7 +821,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
@@ -824,14 +837,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:U42"/>
+  <dimension ref="A1:U44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" style="8" customWidth="1"/>
     <col min="2" max="2" width="6.75" style="9" hidden="1" customWidth="1"/>
@@ -846,7 +859,7 @@
     <col min="18" max="21" width="6.75" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
@@ -911,7 +924,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
@@ -952,7 +965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>32</v>
       </c>
@@ -993,7 +1006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>33</v>
       </c>
@@ -1034,7 +1047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>34</v>
       </c>
@@ -1075,172 +1088,248 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C7" s="9">
+        <f>SUM(C2:C5)</f>
+        <v>8</v>
+      </c>
+      <c r="D7" s="9">
+        <f t="shared" ref="D7:U7" si="0">SUM(D2:D5)</f>
+        <v>79</v>
+      </c>
+      <c r="E7" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="9">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="O7" s="9">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="P7" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="9">
+        <f t="shared" si="0"/>
+        <v>205</v>
+      </c>
+      <c r="S7" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="U7" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>68</v>
       </c>
@@ -1281,7 +1370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>69</v>
       </c>
@@ -1322,7 +1411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>70</v>
       </c>
@@ -1363,7 +1452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>71</v>
       </c>
@@ -1401,6 +1490,84 @@
         <v>6</v>
       </c>
       <c r="U42" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C44" s="9">
+        <f>SUM(C39:C42)</f>
+        <v>35</v>
+      </c>
+      <c r="D44" s="9">
+        <f t="shared" ref="D44:U44" si="1">SUM(D39:D42)</f>
+        <v>173</v>
+      </c>
+      <c r="E44" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F44" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N44" s="9">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="O44" s="9">
+        <f t="shared" si="1"/>
+        <v>227</v>
+      </c>
+      <c r="P44" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R44" s="9">
+        <f t="shared" si="1"/>
+        <v>182</v>
+      </c>
+      <c r="S44" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T44" s="9">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="U44" s="9">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1422,7 +1589,7 @@
       <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" style="8" customWidth="1"/>
     <col min="2" max="2" width="6.75" style="9" hidden="1" customWidth="1"/>
@@ -1435,7 +1602,7 @@
     <col min="18" max="21" width="6.75" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>14</v>
       </c>
@@ -1500,7 +1667,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
@@ -1541,7 +1708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>32</v>
       </c>
@@ -1582,7 +1749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>33</v>
       </c>
@@ -1623,7 +1790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>34</v>
       </c>
@@ -1664,172 +1831,172 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>68</v>
       </c>
@@ -1870,7 +2037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>69</v>
       </c>
@@ -1911,7 +2078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>70</v>
       </c>
@@ -1952,7 +2119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>71</v>
       </c>
@@ -2012,7 +2179,7 @@
       <selection pane="bottomLeft" activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" style="12" customWidth="1"/>
     <col min="2" max="2" width="6.75" style="9" hidden="1" customWidth="1"/>
@@ -2025,7 +2192,7 @@
     <col min="18" max="21" width="6.75" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>14</v>
       </c>
@@ -2082,7 +2249,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
         <v>45201.302083333336</v>
       </c>
@@ -2123,7 +2290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>45201.3125</v>
       </c>
@@ -2164,7 +2331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>45201.322916666664</v>
       </c>
@@ -2205,7 +2372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>45201.333333333336</v>
       </c>
@@ -2246,172 +2413,172 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>45201.34375</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>45201.354166666664</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>45201.364583333336</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>45201.375</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>45201.385416666664</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>45201.395833333336</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>45201.40625</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>45201.416666666664</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>45201.427083333336</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <v>45201.4375</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <v>45201.447916666664</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
         <v>45201.458333333336</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
         <v>45201.46875</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
         <v>45201.479166666664</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14">
         <v>45201.489583333336</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14">
         <v>45201.5</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14">
         <v>45201.510416666664</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14">
         <v>45201.520833333336</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14">
         <v>45201.53125</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14">
         <v>45201.541666666664</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14">
         <v>45201.552083333336</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14">
         <v>45201.5625</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14">
         <v>45201.572916666664</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14">
         <v>45201.583333333336</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14">
         <v>45201.59375</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14">
         <v>45201.604166666664</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14">
         <v>45201.614583333336</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14">
         <v>45201.625</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14">
         <v>45201.635416666664</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14">
         <v>45201.645833333336</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14">
         <v>45201.65625</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="14">
         <v>45201.666666666664</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="14">
         <v>45201.677083333336</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="14">
         <v>45201.6875</v>
       </c>
@@ -2452,7 +2619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="14">
         <v>45201.697916666664</v>
       </c>
@@ -2493,7 +2660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="14">
         <v>45201.708333333336</v>
       </c>
@@ -2534,7 +2701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="14">
         <v>45201.71875</v>
       </c>
@@ -2594,7 +2761,7 @@
       <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" style="12" customWidth="1"/>
     <col min="2" max="2" width="6.75" style="9" hidden="1" customWidth="1"/>
@@ -2607,7 +2774,7 @@
     <col min="18" max="21" width="6.75" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>14</v>
       </c>
@@ -2664,7 +2831,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
         <v>45201.302083333336</v>
       </c>
@@ -2705,7 +2872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>45201.3125</v>
       </c>
@@ -2746,7 +2913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>45201.322916666664</v>
       </c>
@@ -2787,7 +2954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>45201.333333333336</v>
       </c>
@@ -2828,172 +2995,172 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>45201.34375</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>45201.354166666664</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>45201.364583333336</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>45201.375</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>45201.385416666664</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>45201.395833333336</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>45201.40625</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>45201.416666666664</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>45201.427083333336</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <v>45201.4375</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <v>45201.447916666664</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
         <v>45201.458333333336</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
         <v>45201.46875</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
         <v>45201.479166666664</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14">
         <v>45201.489583333336</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14">
         <v>45201.5</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14">
         <v>45201.510416666664</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14">
         <v>45201.520833333336</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14">
         <v>45201.53125</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14">
         <v>45201.541666666664</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14">
         <v>45201.552083333336</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14">
         <v>45201.5625</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14">
         <v>45201.572916666664</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14">
         <v>45201.583333333336</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14">
         <v>45201.59375</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14">
         <v>45201.604166666664</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14">
         <v>45201.614583333336</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14">
         <v>45201.625</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14">
         <v>45201.635416666664</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14">
         <v>45201.645833333336</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14">
         <v>45201.65625</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="14">
         <v>45201.666666666664</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="14">
         <v>45201.677083333336</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="14">
         <v>45201.6875</v>
       </c>
@@ -3034,7 +3201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="14">
         <v>45201.697916666664</v>
       </c>
@@ -3075,7 +3242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="14">
         <v>45201.708333333336</v>
       </c>
@@ -3116,7 +3283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="14">
         <v>45201.71875</v>
       </c>
